--- a/DuLieuThucHanh2_K66_GuiSV_V1.xlsx
+++ b/DuLieuThucHanh2_K66_GuiSV_V1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\BT_LTUDKT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAFC590-7E64-4664-ADD8-D20D3F81A997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3DBAA8-7638-4EC4-A588-FFE2031CE7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{F458A799-C09C-4EC7-9AD7-CC3D648776AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F458A799-C09C-4EC7-9AD7-CC3D648776AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sinh Vien" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="104">
   <si>
     <t>Ho Ten</t>
   </si>
@@ -334,6 +334,21 @@
   </si>
   <si>
     <t>12/02/2003</t>
+  </si>
+  <si>
+    <t>0206466</t>
+  </si>
+  <si>
+    <t>Trần Phúc Tiến</t>
+  </si>
+  <si>
+    <t>66PM2</t>
+  </si>
+  <si>
+    <t>Nguyễn Thu Hằng</t>
+  </si>
+  <si>
+    <t>0206465</t>
   </si>
 </sst>
 </file>
@@ -343,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0;[Red]0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,12 +371,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -411,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,37 +428,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405FE032-1726-403A-8B86-23EEC9FE5DD0}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,483 +807,523 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="17">
+        <v>37937</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="17">
+        <v>37906</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1271,428 +1335,462 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950DF5DA-EE46-4B46-B7A5-CBA8EA93B4FA}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.77734375" style="9"/>
+    <col min="1" max="1" width="12.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>7</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>6</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>8.5</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>8.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>7.5</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>9</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>4</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36F34C0-FCEA-5D4E-85B2-5D962C2C79DA}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E26" sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1717,411 +1815,445 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>6</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>8</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>8.5</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>8.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>7.5</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>7.2</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>7.5</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>6</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>4.5</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="7">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2131,10 +2263,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4887574-B7A0-F344-A224-335FFADC19F2}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2146,411 +2278,445 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>5.5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>6</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>8</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>9</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>9</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>8</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>8</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>9</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10</v>
+      </c>
+      <c r="E25" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="7">
+        <v>10</v>
+      </c>
+      <c r="E26" s="7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
